--- a/bitnamiRedmine/定義書_Redmineプラグイン一覧.xlsx
+++ b/bitnamiRedmine/定義書_Redmineプラグイン一覧.xlsx
@@ -115,34 +115,7 @@
     <t xml:space="preserve">https://github.com/akira-kuriyama/redmine_assign_grouping</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">git clone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/akira-kuriyama/redmine_assign_grouping</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">.git</t>
-    </r>
+    <t xml:space="preserve">git clone https://github.com/akira-kuriyama/redmine_assign_grouping.git</t>
   </si>
 </sst>
 </file>
@@ -254,7 +227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -268,10 +241,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,15 +336,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="62.35"/>
@@ -430,7 +399,7 @@
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -444,14 +413,14 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -465,14 +434,14 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -486,14 +455,14 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -507,14 +476,14 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -528,14 +497,14 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -549,14 +518,14 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -585,7 +554,7 @@
     <hyperlink ref="C8" r:id="rId12" display="https://github.com/suer/redmine_issues_summary_graph/tree/use-minimagick"/>
     <hyperlink ref="D8" r:id="rId13" display="git clone https://github.com/suer/redmine_issues_summary_graph.git"/>
     <hyperlink ref="C9" r:id="rId14" display="https://github.com/akira-kuriyama/redmine_assign_grouping"/>
-    <hyperlink ref="D9" r:id="rId15" display="https://github.com/akira-kuriyama/redmine_assign_grouping"/>
+    <hyperlink ref="D9" r:id="rId15" display="git clone https://github.com/akira-kuriyama/redmine_assign_grouping.git"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/bitnamiRedmine/定義書_Redmineプラグイン一覧.xlsx
+++ b/bitnamiRedmine/定義書_Redmineプラグイン一覧.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -43,6 +43,9 @@
 対応</t>
   </si>
   <si>
+    <t xml:space="preserve">備考</t>
+  </si>
+  <si>
     <t xml:space="preserve">かんばん機能</t>
   </si>
   <si>
@@ -116,6 +119,120 @@
   </si>
   <si>
     <t xml:space="preserve">git clone https://github.com/akira-kuriyama/redmine_assign_grouping.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヘルプ日本語化プラグイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/suer/redmine_japanese_help</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git clone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/suer/redmine_japanese_help.git</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">履歴付チケット一覧出力プラグイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/suer/redmine_export_with_journals</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git clone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/suer/redmine_export_with_journals.git</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelで読めなくなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub のような活動表示機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/suer/redmine_glanceyear</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git clone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/suer/redmine_glanceyear.git</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Markdown 形式でテーブル貼付機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/suer/redmine_paste_as_markdown_tables</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">git clone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/suer/redmine_paste_as_markdown_tables.git</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelのバージョン起因？</t>
   </si>
 </sst>
 </file>
@@ -227,7 +344,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -245,6 +362,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,16 +454,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8:K9"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.95"/>
@@ -369,6 +490,9 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
@@ -376,20 +500,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -397,20 +522,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -418,20 +544,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -439,20 +566,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -460,20 +588,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -481,20 +610,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -502,40 +632,134 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <f aca="false">ROW()-1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>9</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -555,6 +779,14 @@
     <hyperlink ref="D8" r:id="rId13" display="git clone https://github.com/suer/redmine_issues_summary_graph.git"/>
     <hyperlink ref="C9" r:id="rId14" display="https://github.com/akira-kuriyama/redmine_assign_grouping"/>
     <hyperlink ref="D9" r:id="rId15" display="git clone https://github.com/akira-kuriyama/redmine_assign_grouping.git"/>
+    <hyperlink ref="C10" r:id="rId16" display="https://github.com/suer/redmine_japanese_help"/>
+    <hyperlink ref="D10" r:id="rId17" display="https://github.com/suer/redmine_japanese_help.git"/>
+    <hyperlink ref="C11" r:id="rId18" display="https://github.com/suer/redmine_export_with_journals"/>
+    <hyperlink ref="D11" r:id="rId19" display="https://github.com/suer/redmine_export_with_journals.git"/>
+    <hyperlink ref="C12" r:id="rId20" display="https://github.com/suer/redmine_glanceyear"/>
+    <hyperlink ref="D12" r:id="rId21" display="https://github.com/suer/redmine_glanceyear.git"/>
+    <hyperlink ref="C13" r:id="rId22" display="https://github.com/suer/redmine_paste_as_markdown_tables"/>
+    <hyperlink ref="D13" r:id="rId23" display="https://github.com/suer/redmine_paste_as_markdown_tables.git"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/bitnamiRedmine/定義書_Redmineプラグイン一覧.xlsx
+++ b/bitnamiRedmine/定義書_Redmineプラグイン一覧.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -125,6 +125,57 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/suer/redmine_japanese_help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://github.com/suer/redmine_japanese_help.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">履歴付チケット一覧出力プラグイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/suer/redmine_export_with_journals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://github.com/suer/redmine_export_with_journals.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelで読めなくなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub のような活動表示機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/suer/redmine_glanceyear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://github.com/suer/redmine_glanceyear.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markdown 形式でテーブル貼付機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/suer/redmine_paste_as_markdown_tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://github.com/suer/redmine_paste_as_markdown_tables.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelのバージョン起因？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クリップボードから画像コピーする機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/peclik/clipboard_image_paste.git clipboard_image_paste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://github.com/peclik/clipboard_image_paste.git clipboard_image_paste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJ一覧でPJごとの進捗率が表示する機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ergoserv/redmine-progressive-projects-list</t>
   </si>
   <si>
     <r>
@@ -144,95 +195,8 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">https://github.com/suer/redmine_japanese_help.git</t>
+      <t xml:space="preserve">https://github.com/ergoserv/redmine-progressive-projects-list.git</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">履歴付チケット一覧出力プラグイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/suer/redmine_export_with_journals</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">git clone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/suer/redmine_export_with_journals.git</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Excelで読めなくなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub のような活動表示機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/suer/redmine_glanceyear</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">git clone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/suer/redmine_glanceyear.git</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Markdown 形式でテーブル貼付機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/suer/redmine_paste_as_markdown_tables</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">git clone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/suer/redmine_paste_as_markdown_tables.git</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Excelのバージョン起因？</t>
   </si>
 </sst>
 </file>
@@ -454,13 +418,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.06"/>
@@ -681,7 +645,7 @@
       <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -703,7 +667,7 @@
       <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -727,7 +691,7 @@
       <c r="C12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -749,7 +713,7 @@
       <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -761,6 +725,50 @@
       <c r="G13" s="5" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -780,13 +788,15 @@
     <hyperlink ref="C9" r:id="rId14" display="https://github.com/akira-kuriyama/redmine_assign_grouping"/>
     <hyperlink ref="D9" r:id="rId15" display="git clone https://github.com/akira-kuriyama/redmine_assign_grouping.git"/>
     <hyperlink ref="C10" r:id="rId16" display="https://github.com/suer/redmine_japanese_help"/>
-    <hyperlink ref="D10" r:id="rId17" display="https://github.com/suer/redmine_japanese_help.git"/>
+    <hyperlink ref="D10" r:id="rId17" display="git clone https://github.com/suer/redmine_japanese_help.git"/>
     <hyperlink ref="C11" r:id="rId18" display="https://github.com/suer/redmine_export_with_journals"/>
-    <hyperlink ref="D11" r:id="rId19" display="https://github.com/suer/redmine_export_with_journals.git"/>
+    <hyperlink ref="D11" r:id="rId19" display="git clone https://github.com/suer/redmine_export_with_journals.git"/>
     <hyperlink ref="C12" r:id="rId20" display="https://github.com/suer/redmine_glanceyear"/>
-    <hyperlink ref="D12" r:id="rId21" display="https://github.com/suer/redmine_glanceyear.git"/>
+    <hyperlink ref="D12" r:id="rId21" display="git clone https://github.com/suer/redmine_glanceyear.git"/>
     <hyperlink ref="C13" r:id="rId22" display="https://github.com/suer/redmine_paste_as_markdown_tables"/>
-    <hyperlink ref="D13" r:id="rId23" display="https://github.com/suer/redmine_paste_as_markdown_tables.git"/>
+    <hyperlink ref="D13" r:id="rId23" display="git clone https://github.com/suer/redmine_paste_as_markdown_tables.git"/>
+    <hyperlink ref="C15" r:id="rId24" display="https://github.com/ergoserv/redmine-progressive-projects-list"/>
+    <hyperlink ref="D15" r:id="rId25" display="https://github.com/ergoserv/redmine-progressive-projects-list.git"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
